--- a/biology/Médecine/Technicien_d'information_médicale/Technicien_d'information_médicale.xlsx
+++ b/biology/Médecine/Technicien_d'information_médicale/Technicien_d'information_médicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Technicien_d%27information_m%C3%A9dicale</t>
+          <t>Technicien_d'information_médicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le technicien d'information médicale (TIM) exerce dans les établissements hospitaliers français, qu'ils soient publics / privés non lucratifs / privés lucratifs, de court séjour / moyen séjour / psychiatrie / hospitalisation à domicile.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Technicien_d%27information_m%C3%A9dicale</t>
+          <t>Technicien_d'information_médicale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les techniciens d'information médicale sont chargés, dans le cadre du PMSI et de la T2A, à l'intérieur des départements d'Information médicale, des tâches suivantes[1] :
-codage de l'information médicale : transformation de concepts médicaux (diagnostics, actes) en codes. Exemple : K37 en CIM10 pour l'appendicite, et HHFA001 en CCAM pour l’appendicectomie. Ces informations servent de base au calcul des recettes des établissements[2],[3] ;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les techniciens d'information médicale sont chargés, dans le cadre du PMSI et de la T2A, à l'intérieur des départements d'Information médicale, des tâches suivantes :
+codage de l'information médicale : transformation de concepts médicaux (diagnostics, actes) en codes. Exemple : K37 en CIM10 pour l'appendicite, et HHFA001 en CCAM pour l’appendicectomie. Ces informations servent de base au calcul des recettes des établissements, ;
 contrôle et correction de l'information médicale (par exemple dans le but d'augmenter les recettes de l'établissement) ;
 analyse de l'information médicale : requêtes, simulations de changement d'activité ;
 assistance au déploiement du système d'information hospitalier.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Technicien_d%27information_m%C3%A9dicale</t>
+          <t>Technicien_d'information_médicale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,16 +562,18 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le métier de TIM étant récent[4], il existe peu de formations dédiées. Pourtant, selon le ministère de la Santé, 40 % des postes de TIM sont aujourd'hui vacants[5], faute de professionnels suffisamment formés. On recense notamment les formations suivantes :
-le DU TIM de l'université d'Avignon (accessible bac+1 uniquement)[6] ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le métier de TIM étant récent, il existe peu de formations dédiées. Pourtant, selon le ministère de la Santé, 40 % des postes de TIM sont aujourd'hui vacants, faute de professionnels suffisamment formés. On recense notamment les formations suivantes :
+le DU TIM de l'université d'Avignon (accessible bac+1 uniquement) ;
 le DU TIM de l'université d'Aix Marseille (SESSTIM) ;
 la Licence professionnelle MIDIM : Management et Ingénierie des départements d'information médicale de l'Université d'Avignon (accessible bac+ VAP) ;
 le DU Information médicale de la faculté de pharmacie de l'université Lille 2 ;
 la licence professionnelle MOLIM à la faculté de pharmacie de l'université Lille 2 ;
-la licence professionnelle MOTIM à l'université de Haute Alsace à MULHOUSE (SERFA)[7] ;
-le certificat d'aptitude au traitement de l'information médicale de l'ISETIM, accessible en formation initiale au niveau bac à Lille, et en formation continue par correspondance à tous les niveaux[8] ;
+la licence professionnelle MOTIM à l'université de Haute Alsace à MULHOUSE (SERFA) ;
+le certificat d'aptitude au traitement de l'information médicale de l'ISETIM, accessible en formation initiale au niveau bac à Lille, et en formation continue par correspondance à tous les niveaux ;
 le certificat de compétences avec le CNAM et la licence professionnelle Santé, parcours Technicien de l'information médicale avec le Conservatoire National des Arts et Métiers</t>
         </is>
       </c>
